--- a/District-22-meal-log.xlsx
+++ b/District-22-meal-log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilanamartin/work/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilanamartin/work/district-22/district-22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E394430-8261-7140-A289-69827C233806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B305FC-B9F4-4845-BBF3-E1E6D42EE74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6580" yWindow="500" windowWidth="22220" windowHeight="15140" xr2:uid="{16907601-09B2-224A-9F56-F4A2D6CA4AA2}"/>
+    <workbookView xWindow="6580" yWindow="980" windowWidth="22220" windowHeight="15140" xr2:uid="{16907601-09B2-224A-9F56-F4A2D6CA4AA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Meal Log" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Week Number Served</t>
   </si>
   <si>
-    <t>Loaction Served</t>
-  </si>
-  <si>
     <t>Meal Description</t>
   </si>
   <si>
@@ -243,6 +240,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Location Served</t>
   </si>
 </sst>
 </file>
@@ -667,7 +667,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
@@ -693,7 +693,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>4</v>
@@ -702,7 +702,7 @@
         <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -710,22 +710,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2">
         <v>45979</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -733,22 +733,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2">
         <v>45979</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -756,22 +756,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -779,22 +779,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2">
         <v>45979</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -802,22 +802,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2">
         <v>45979</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -825,22 +825,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2">
         <v>45979</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -848,22 +848,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="2">
         <v>45979</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -871,22 +871,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="2">
         <v>45979</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -894,22 +894,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="2">
         <v>45979</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -917,22 +917,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="2">
         <v>45979</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -940,22 +940,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="2">
         <v>45979</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -963,22 +963,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="2">
         <v>45979</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -986,22 +986,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" s="2">
         <v>45979</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1009,22 +1009,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="2">
         <v>45979</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -1032,22 +1032,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1055,22 +1055,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" s="6">
         <v>45979</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -1078,22 +1078,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1101,22 +1101,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" s="6">
         <v>45979</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1124,22 +1124,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" s="6">
         <v>45986</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1147,22 +1147,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" s="6">
         <v>45986</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1170,22 +1170,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" s="6">
         <v>45986</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1193,22 +1193,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" s="6">
         <v>45986</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -1216,22 +1216,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1239,22 +1239,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" s="6">
         <v>45986</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1262,22 +1262,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" s="6">
         <v>45986</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1285,22 +1285,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27" s="6">
         <v>45986</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1308,22 +1308,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" s="6">
         <v>45986</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1331,22 +1331,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" s="6">
         <v>45986</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1354,22 +1354,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" s="6">
         <v>45986</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1377,22 +1377,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" s="6">
         <v>45986</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1400,22 +1400,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32" s="6">
         <v>45986</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1423,22 +1423,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" s="6">
         <v>45986</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1446,22 +1446,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F34" s="6">
         <v>45986</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1469,22 +1469,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" s="6">
         <v>45986</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1492,22 +1492,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F36" s="2">
         <v>45993</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1515,22 +1515,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F37" s="2">
         <v>45993</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1538,22 +1538,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F38" s="2">
         <v>45993</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1561,22 +1561,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F39" s="2">
         <v>45993</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1584,22 +1584,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F40" s="2">
         <v>45993</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -1607,22 +1607,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F41" s="2">
         <v>45993</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -1630,22 +1630,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42" s="2">
         <v>45993</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1653,22 +1653,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F43" s="2">
         <v>45993</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1676,22 +1676,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F44" s="2">
         <v>45993</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -1699,22 +1699,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F45" s="2">
         <v>45993</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/District-22-meal-log.xlsx
+++ b/District-22-meal-log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilanamartin/work/district-22/district-22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B305FC-B9F4-4845-BBF3-E1E6D42EE74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCF65F3-6B7E-B24C-8751-7C4D1B049898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6580" yWindow="980" windowWidth="22220" windowHeight="15140" xr2:uid="{16907601-09B2-224A-9F56-F4A2D6CA4AA2}"/>
+    <workbookView xWindow="1700" yWindow="980" windowWidth="27100" windowHeight="15140" xr2:uid="{16907601-09B2-224A-9F56-F4A2D6CA4AA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Meal Log" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Meal Category</t>
   </si>
   <si>
-    <t>Week Number Served</t>
-  </si>
-  <si>
     <t>Meal Description</t>
   </si>
   <si>
@@ -243,6 +240,9 @@
   </si>
   <si>
     <t>Location Served</t>
+  </si>
+  <si>
+    <t>Week Served</t>
   </si>
 </sst>
 </file>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFA1B14-147E-1D44-AFAE-9C4274561C2E}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -676,7 +676,7 @@
     <col min="2" max="2" width="34.1640625" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" customWidth="1"/>
     <col min="4" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
@@ -693,16 +693,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -710,22 +710,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2">
-        <v>45979</v>
+        <v>45614</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -733,22 +733,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2">
-        <v>45979</v>
+        <v>45614</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -756,22 +756,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -779,22 +779,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2">
-        <v>45979</v>
+        <v>45614</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -802,22 +802,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2">
-        <v>45979</v>
+        <v>45614</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -825,22 +825,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2">
-        <v>45979</v>
+        <v>45614</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -848,22 +848,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2">
-        <v>45979</v>
+        <v>45614</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -871,22 +871,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2">
-        <v>45979</v>
+        <v>45614</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -894,22 +894,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2">
-        <v>45979</v>
+        <v>45614</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -917,22 +917,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2">
-        <v>45979</v>
+        <v>45614</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -940,22 +940,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" s="2">
-        <v>45979</v>
+        <v>45614</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -963,22 +963,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" s="2">
-        <v>45979</v>
+        <v>45614</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -986,22 +986,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" s="2">
-        <v>45979</v>
+        <v>45614</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1009,22 +1009,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" s="2">
-        <v>45979</v>
+        <v>45614</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -1032,22 +1032,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1055,22 +1055,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" s="6">
         <v>45979</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -1078,22 +1078,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1101,22 +1101,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" s="6">
         <v>45979</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1124,22 +1124,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" s="6">
-        <v>45986</v>
+        <v>45621</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1147,22 +1147,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" s="6">
-        <v>45986</v>
+        <v>45621</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1170,22 +1170,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" s="6">
-        <v>45986</v>
+        <v>45621</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1193,22 +1193,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" s="6">
-        <v>45986</v>
+        <v>45621</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -1216,22 +1216,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1239,22 +1239,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" s="6">
-        <v>45986</v>
+        <v>45621</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1262,22 +1262,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" s="6">
-        <v>45986</v>
+        <v>45621</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1285,22 +1285,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" s="6">
-        <v>45986</v>
+        <v>45621</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1308,22 +1308,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" s="6">
-        <v>45986</v>
+        <v>45621</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1331,22 +1331,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" s="6">
-        <v>45986</v>
+        <v>45621</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1354,22 +1354,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" s="6">
-        <v>45986</v>
+        <v>45621</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1377,22 +1377,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" s="6">
-        <v>45986</v>
+        <v>45621</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1400,22 +1400,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32" s="6">
-        <v>45986</v>
+        <v>45621</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1423,22 +1423,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F33" s="6">
-        <v>45986</v>
+        <v>45621</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1446,22 +1446,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F34" s="6">
-        <v>45986</v>
+        <v>45621</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1469,22 +1469,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" s="6">
-        <v>45986</v>
+        <v>45621</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1492,22 +1492,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F36" s="2">
-        <v>45993</v>
+        <v>45628</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1515,22 +1515,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37" s="2">
-        <v>45993</v>
+        <v>45628</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1538,22 +1538,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38" s="2">
-        <v>45993</v>
+        <v>45628</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1561,22 +1561,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" s="2">
-        <v>45993</v>
+        <v>45628</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1584,22 +1584,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F40" s="2">
-        <v>45993</v>
+        <v>45628</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -1607,22 +1607,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F41" s="2">
-        <v>45993</v>
+        <v>45628</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -1630,22 +1630,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" s="2">
-        <v>45993</v>
+        <v>45628</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1653,22 +1653,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" s="2">
-        <v>45993</v>
+        <v>45628</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1676,22 +1676,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F44" s="2">
-        <v>45993</v>
+        <v>45628</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -1699,22 +1699,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F45" s="2">
-        <v>45993</v>
+        <v>45628</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
